--- a/Whiteboard.xlsx
+++ b/Whiteboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,18 @@
     <sheet name="Sheet9" sheetId="9" r:id="rId7"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId8"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="124">
   <si>
     <t>Azure Regions</t>
   </si>
@@ -308,6 +313,93 @@
   </si>
   <si>
     <t>Message 1 - expiry</t>
+  </si>
+  <si>
+    <t>App Object in AD</t>
+  </si>
+  <si>
+    <t>Storage Account</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Cient ID</t>
+  </si>
+  <si>
+    <t>Will take consent of Looged In User</t>
+  </si>
+  <si>
+    <t>Atin</t>
+  </si>
+  <si>
+    <t>Git Hub</t>
+  </si>
+  <si>
+    <t>Github needs below rights:</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Write</t>
+  </si>
+  <si>
+    <t>Yes/No</t>
+  </si>
+  <si>
+    <t>App Object</t>
+  </si>
+  <si>
+    <t>Client Secret</t>
+  </si>
+  <si>
+    <t>App ID</t>
+  </si>
+  <si>
+    <t>Display Name</t>
+  </si>
+  <si>
+    <t>Storage a/c</t>
+  </si>
+  <si>
+    <t>API Permission</t>
+  </si>
+  <si>
+    <t>Graph API</t>
+  </si>
+  <si>
+    <t>RBAC not required</t>
+  </si>
+  <si>
+    <t>Event Grid - Topic</t>
+  </si>
+  <si>
+    <t>kvsub1</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Web App</t>
+  </si>
+  <si>
+    <t>Event Viewer</t>
+  </si>
+  <si>
+    <t>On Premise Custom Code</t>
+  </si>
+  <si>
+    <t>Event Grid Topic</t>
+  </si>
+  <si>
+    <t>Topic Subrciption - Web App</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Subcription 2</t>
   </si>
 </sst>
 </file>
@@ -345,7 +437,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,6 +534,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -535,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -576,6 +686,9 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1153,6 +1266,1271 @@
         <a:xfrm>
           <a:off x="2828925" y="2514600"/>
           <a:ext cx="66675" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="1914525"/>
+          <a:ext cx="752475" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3257550" y="1447800"/>
+          <a:ext cx="923925" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3933825" y="762000"/>
+          <a:ext cx="3162300" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4019550" y="1295400"/>
+          <a:ext cx="2943225" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="895350"/>
+          <a:ext cx="123825" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4038600" y="1219200"/>
+          <a:ext cx="3181350" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="590550"/>
+          <a:ext cx="885825" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>App1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="952500"/>
+          <a:ext cx="885825" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>App2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2000250" y="1095375"/>
+          <a:ext cx="1724025" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667500" y="1190625"/>
+          <a:ext cx="1866900" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Oval 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="2095500"/>
+          <a:ext cx="885825" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>App1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Oval 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="3810000"/>
+          <a:ext cx="885825" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>App1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2105025" y="1247775"/>
+          <a:ext cx="1771650" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>146499</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>159019</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2584899" y="1400175"/>
+          <a:ext cx="1396551" cy="2568844"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6334125" y="1466850"/>
+          <a:ext cx="2181225" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Oval 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="2286000"/>
+          <a:ext cx="885825" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>App2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Oval 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7400925" y="3333750"/>
+          <a:ext cx="885825" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>App2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6067425" y="1876425"/>
+          <a:ext cx="1371600" cy="1800225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5638801" y="676275"/>
+          <a:ext cx="2733674" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085975" y="866775"/>
+          <a:ext cx="1838325" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2667000" y="76200"/>
+          <a:ext cx="981075" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5353050" y="828675"/>
+          <a:ext cx="1343025" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1895475" y="590550"/>
+          <a:ext cx="1619250" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4695825" y="66675"/>
+          <a:ext cx="1895475" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2714625" y="638175"/>
+          <a:ext cx="933450" cy="123825"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1872,6 +3250,887 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:Q23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+    </row>
+    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+    </row>
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+    </row>
+    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="K17" s="6"/>
+      <c r="L17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="K19" s="6"/>
+      <c r="L19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="K20" s="6"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="J8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G3:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12">
+        <v>4</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12">
+        <v>5</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G9" s="12"/>
+      <c r="H9" s="12">
+        <v>6</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Q15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O2" s="8"/>
+      <c r="P2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="O4" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G1" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="38"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="G4" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:P17"/>
@@ -3033,7 +5292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>

--- a/Whiteboard.xlsx
+++ b/Whiteboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
     <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
     <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="125">
   <si>
     <t>Azure Regions</t>
   </si>
@@ -400,6 +401,9 @@
   </si>
   <si>
     <t>Subcription 2</t>
+  </si>
+  <si>
+    <t>Event Hub</t>
   </si>
 </sst>
 </file>
@@ -645,7 +649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -689,6 +693,30 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2531,6 +2559,916 @@
         <a:xfrm flipV="1">
           <a:off x="2714625" y="638175"/>
           <a:ext cx="933450" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057275" y="161925"/>
+          <a:ext cx="1047750" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981075" y="1724025"/>
+          <a:ext cx="1047750" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="3152775"/>
+          <a:ext cx="1047750" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="828675"/>
+          <a:ext cx="1076325" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2028825" y="1733550"/>
+          <a:ext cx="1000125" cy="500063"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2238375" y="2505075"/>
+          <a:ext cx="790575" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1724025" y="2133600"/>
+          <a:ext cx="1285875" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Oval 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7696200" y="0"/>
+          <a:ext cx="1047750" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Oval 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="3171825"/>
+          <a:ext cx="1047750" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6667500" y="771525"/>
+          <a:ext cx="1352550" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>563014</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>184120</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="15" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6372225" y="2562225"/>
+          <a:ext cx="2115589" cy="1479520"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="1276350"/>
+          <a:ext cx="1076325" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="1428750"/>
+          <a:ext cx="942975" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>122786</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>79345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1951586" y="1031845"/>
+          <a:ext cx="1048789" cy="1444655"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Oval 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="1019175"/>
+          <a:ext cx="1047750" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Oval 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9467850" y="2162175"/>
+          <a:ext cx="1047750" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6591300" y="1619250"/>
+          <a:ext cx="1704975" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="33" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619875" y="2105025"/>
+          <a:ext cx="2847975" cy="566738"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3948,7 +4886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -4126,6 +5064,150 @@
       <c r="I19" s="8"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F4:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="6:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41">
+        <v>1</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="42"/>
+    </row>
+    <row r="8" spans="6:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="46"/>
+    </row>
+    <row r="9" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41">
+        <v>2</v>
+      </c>
+      <c r="I9" s="41"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="42"/>
+    </row>
+    <row r="10" spans="6:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="46"/>
+    </row>
+    <row r="11" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41">
+        <v>3</v>
+      </c>
+      <c r="I11" s="41"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="42"/>
+    </row>
+    <row r="12" spans="6:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="46"/>
+    </row>
+    <row r="13" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41">
+        <v>4</v>
+      </c>
+      <c r="I13" s="41"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="42"/>
+    </row>
+    <row r="14" spans="6:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="46"/>
+    </row>
+    <row r="15" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="H13:I14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
